--- a/src/excel_template/posQC_trend/Global LTR Trend format.xlsx
+++ b/src/excel_template/posQC_trend/Global LTR Trend format.xlsx
@@ -610,6 +610,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -819,6 +820,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00_);[Red]\(0.00\)" sourceLinked="1"/>
@@ -843,6 +845,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -902,6 +905,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1111,6 +1115,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1135,6 +1140,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1195,6 +1201,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1404,6 +1411,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1428,6 +1436,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1487,6 +1496,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1696,6 +1706,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -1720,6 +1731,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -1779,6 +1791,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -1988,6 +2001,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2012,6 +2026,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2072,6 +2087,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2281,6 +2297,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.00" sourceLinked="1"/>
@@ -2305,6 +2322,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2364,6 +2382,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:title>
     <c:autoTitleDeleted val="0"/>
@@ -2571,6 +2590,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0_ " sourceLinked="1"/>
@@ -2594,6 +2614,7 @@
     </c:plotArea>
     <c:legend>
       <c:legendPos val="r"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -10791,7 +10812,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13" x14ac:dyDescent="0.2"/>
   <sheetData/>
